--- a/src/main/java/TestData/AmazonData.xlsx
+++ b/src/main/java/TestData/AmazonData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{172CD9D3-470F-40EC-B72C-52E5E07247AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>Amzon@7114</t>
-  </si>
-  <si>
-    <t>75 Samsung</t>
+    <t>DataProviderWithExcel_001</t>
+  </si>
+  <si>
+    <t>Ajit@123</t>
+  </si>
+  <si>
+    <t>65-inch TV</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -519,26 +522,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>478567916</v>
+        <v>7405161347</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3">
-        <v>4242424242424240</v>
+        <v>4462030000000000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Ajit@123" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/java/TestData/AmazonData.xlsx
+++ b/src/main/java/TestData/AmazonData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A502D462-97CC-46E9-BCBC-6E37B67BFD84}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -45,13 +45,10 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>DataProviderWithExcel_001</t>
-  </si>
-  <si>
-    <t>Ajit@123</t>
-  </si>
-  <si>
-    <t>65-inch TV</t>
+    <t>Prem#7777</t>
+  </si>
+  <si>
+    <t>100-Inch TV</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -522,21 +519,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>478567916</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>7405161347</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="3">
-        <v>4462030000000000</v>
+        <v>4242424242424240</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestData/AmazonData.xlsx
+++ b/src/main/java/TestData/AmazonData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A502D462-97CC-46E9-BCBC-6E37B67BFD84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4BF965D2960D731D92CFA46CD8F1E63013BDDEDB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -45,10 +45,13 @@
     <t>Card_Number</t>
   </si>
   <si>
-    <t>Prem#7777</t>
-  </si>
-  <si>
-    <t>100-Inch TV</t>
+    <t>DataProviderWithExcel_001</t>
+  </si>
+  <si>
+    <t>Ajit@123</t>
+  </si>
+  <si>
+    <t>65-inch TV</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -519,21 +522,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7405161347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>478567916</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3">
-        <v>4242424242424240</v>
+        <v>4462030000000000</v>
       </c>
     </row>
   </sheetData>
